--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
@@ -690,6 +690,9 @@
       <c r="J7">
         <v>-0.1358722724086538</v>
       </c>
+      <c r="K7">
+        <v>-0.4017729932881683</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -719,6 +722,9 @@
       <c r="I8">
         <v>0.2179142336710425</v>
       </c>
+      <c r="J8">
+        <v>-0.04798648720847212</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -745,6 +751,9 @@
       <c r="H9">
         <v>0.06973684323859711</v>
       </c>
+      <c r="I9">
+        <v>-0.1961638776409175</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -768,6 +777,9 @@
       <c r="G10">
         <v>-0.08770914576555788</v>
       </c>
+      <c r="H10">
+        <v>-0.3536098666450724</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -788,6 +800,9 @@
       <c r="F11">
         <v>0.4129503107605129</v>
       </c>
+      <c r="G11">
+        <v>0.1470495898809984</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -805,6 +820,9 @@
       <c r="E12">
         <v>0.1325924302250437</v>
       </c>
+      <c r="F12">
+        <v>-0.1333082906544708</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -819,6 +837,9 @@
       <c r="D13">
         <v>0.3045672880700554</v>
       </c>
+      <c r="E13">
+        <v>0.03866656719054083</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -830,6 +851,9 @@
       <c r="C14">
         <v>-0.001295251676276088</v>
       </c>
+      <c r="D14">
+        <v>-0.2671959725557906</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -838,10 +862,16 @@
       <c r="B15">
         <v>0.6110347010110101</v>
       </c>
+      <c r="C15">
+        <v>0.3451339801314955</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.097142175261494</v>
+        <v>-0.07696973751825081</v>
       </c>
       <c r="C2">
-        <v>-0.07696973751825081</v>
+        <v>-1.790759194417562</v>
       </c>
       <c r="D2">
-        <v>-1.790759194417562</v>
+        <v>1.03759617918141</v>
       </c>
       <c r="E2">
-        <v>1.03759617918141</v>
+        <v>-1.19773642068471</v>
       </c>
       <c r="F2">
-        <v>-1.19773642068471</v>
+        <v>0.1535986372329528</v>
       </c>
       <c r="G2">
-        <v>0.1535986372329528</v>
+        <v>-0.467839292583949</v>
       </c>
       <c r="H2">
-        <v>-0.467839292583949</v>
+        <v>0.032721404606882</v>
       </c>
       <c r="I2">
-        <v>0.032721404606882</v>
+        <v>-0.6351866677392595</v>
       </c>
       <c r="J2">
-        <v>-0.6351866677392595</v>
+        <v>-0.2061856925012563</v>
       </c>
       <c r="K2">
-        <v>-0.2061856925012563</v>
+        <v>-0.1485141439230462</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5056247995153902</v>
+        <v>-1.208164657383921</v>
       </c>
       <c r="C3">
-        <v>-1.208164657383921</v>
+        <v>1.620190716215051</v>
       </c>
       <c r="D3">
-        <v>1.620190716215051</v>
+        <v>-0.6151418836510686</v>
       </c>
       <c r="E3">
-        <v>-0.6151418836510686</v>
+        <v>0.7361931742665938</v>
       </c>
       <c r="F3">
-        <v>0.7361931742665938</v>
+        <v>0.114755244449692</v>
       </c>
       <c r="G3">
-        <v>0.114755244449692</v>
+        <v>0.6153159416405229</v>
       </c>
       <c r="H3">
-        <v>0.6153159416405229</v>
+        <v>-0.05259213070561841</v>
       </c>
       <c r="I3">
-        <v>-0.05259213070561841</v>
+        <v>0.3764088445323847</v>
       </c>
       <c r="J3">
-        <v>0.3764088445323847</v>
+        <v>0.4340803931105948</v>
       </c>
       <c r="K3">
-        <v>0.4340803931105948</v>
+        <v>0.5580467639488803</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.303839698193279</v>
+        <v>1.524515675405693</v>
       </c>
       <c r="C4">
-        <v>1.524515675405693</v>
+        <v>-0.7108169244604263</v>
       </c>
       <c r="D4">
-        <v>-0.7108169244604263</v>
+        <v>0.6405181334572361</v>
       </c>
       <c r="E4">
-        <v>0.6405181334572361</v>
+        <v>0.01908020364033419</v>
       </c>
       <c r="F4">
-        <v>0.01908020364033419</v>
+        <v>0.5196409008311652</v>
       </c>
       <c r="G4">
-        <v>0.5196409008311652</v>
+        <v>-0.1482671715149762</v>
       </c>
       <c r="H4">
-        <v>-0.1482671715149762</v>
+        <v>0.2807338037230269</v>
       </c>
       <c r="I4">
-        <v>0.2807338037230269</v>
+        <v>0.338405352301237</v>
       </c>
       <c r="J4">
-        <v>0.338405352301237</v>
+        <v>0.4623717231395225</v>
       </c>
       <c r="K4">
-        <v>0.4623717231395225</v>
+        <v>-0.4310464000952693</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.784934712404416</v>
+        <v>-0.4503978874617036</v>
       </c>
       <c r="C5">
-        <v>-0.4503978874617036</v>
+        <v>0.9009371704559588</v>
       </c>
       <c r="D5">
-        <v>0.9009371704559588</v>
+        <v>0.279499240639057</v>
       </c>
       <c r="E5">
-        <v>0.279499240639057</v>
+        <v>0.780059937829888</v>
       </c>
       <c r="F5">
-        <v>0.780059937829888</v>
+        <v>0.1121518654837466</v>
       </c>
       <c r="G5">
-        <v>0.1121518654837466</v>
+        <v>0.5411528407217497</v>
       </c>
       <c r="H5">
-        <v>0.5411528407217497</v>
+        <v>0.5988243892999598</v>
       </c>
       <c r="I5">
-        <v>0.5988243892999598</v>
+        <v>0.7227907601382453</v>
       </c>
       <c r="J5">
-        <v>0.7227907601382453</v>
+        <v>-0.1706273630965465</v>
       </c>
       <c r="K5">
-        <v>-0.1706273630965465</v>
+        <v>0.5995033638472159</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.285852883620195</v>
+        <v>0.06548217429746761</v>
       </c>
       <c r="C6">
-        <v>0.06548217429746761</v>
+        <v>-0.5559557555194342</v>
       </c>
       <c r="D6">
-        <v>-0.5559557555194342</v>
+        <v>-0.0553950583286032</v>
       </c>
       <c r="E6">
-        <v>-0.0553950583286032</v>
+        <v>-0.7233031306747446</v>
       </c>
       <c r="F6">
-        <v>-0.7233031306747446</v>
+        <v>-0.2943021554367415</v>
       </c>
       <c r="G6">
-        <v>-0.2943021554367415</v>
+        <v>-0.2366306068585314</v>
       </c>
       <c r="H6">
-        <v>-0.2366306068585314</v>
+        <v>-0.1126642360202459</v>
       </c>
       <c r="I6">
-        <v>-0.1126642360202459</v>
+        <v>-1.006082359255038</v>
       </c>
       <c r="J6">
-        <v>-1.006082359255038</v>
+        <v>-0.2359516323112753</v>
       </c>
       <c r="K6">
-        <v>-0.2359516323112753</v>
+        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,33 +664,30 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1655615342000891</v>
+        <v>-0.4558763956168127</v>
       </c>
       <c r="C7">
-        <v>-0.4558763956168127</v>
+        <v>0.04468430157401831</v>
       </c>
       <c r="D7">
-        <v>0.04468430157401831</v>
+        <v>-0.6232237707721231</v>
       </c>
       <c r="E7">
-        <v>-0.6232237707721231</v>
+        <v>-0.19422279553412</v>
       </c>
       <c r="F7">
-        <v>-0.19422279553412</v>
+        <v>-0.1365512469559099</v>
       </c>
       <c r="G7">
-        <v>-0.1365512469559099</v>
+        <v>-0.01258487611762438</v>
       </c>
       <c r="H7">
-        <v>-0.01258487611762438</v>
+        <v>-0.9060029993524162</v>
       </c>
       <c r="I7">
-        <v>-0.9060029993524162</v>
+        <v>-0.1358722724086538</v>
       </c>
       <c r="J7">
-        <v>-0.1358722724086538</v>
-      </c>
-      <c r="K7">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -699,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.1020898895371165</v>
+        <v>0.3984708076537146</v>
       </c>
       <c r="C8">
-        <v>0.3984708076537146</v>
+        <v>-0.2694372646924268</v>
       </c>
       <c r="D8">
-        <v>-0.2694372646924268</v>
+        <v>0.1595637105455762</v>
       </c>
       <c r="E8">
-        <v>0.1595637105455762</v>
+        <v>0.2172352591237863</v>
       </c>
       <c r="F8">
-        <v>0.2172352591237863</v>
+        <v>0.3412016299620719</v>
       </c>
       <c r="G8">
-        <v>0.3412016299620719</v>
+        <v>-0.55221649327272</v>
       </c>
       <c r="H8">
-        <v>-0.55221649327272</v>
+        <v>0.2179142336710425</v>
       </c>
       <c r="I8">
-        <v>0.2179142336710425</v>
-      </c>
-      <c r="J8">
         <v>-0.04798648720847212</v>
       </c>
     </row>
@@ -731,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2502934172212692</v>
+        <v>-0.4176146551248722</v>
       </c>
       <c r="C9">
-        <v>-0.4176146551248722</v>
+        <v>0.0113863201131309</v>
       </c>
       <c r="D9">
-        <v>0.0113863201131309</v>
+        <v>0.06905786869134101</v>
       </c>
       <c r="E9">
-        <v>0.06905786869134101</v>
+        <v>0.1930242395296265</v>
       </c>
       <c r="F9">
-        <v>0.1930242395296265</v>
+        <v>-0.7003938837051653</v>
       </c>
       <c r="G9">
-        <v>-0.7003938837051653</v>
+        <v>0.06973684323859711</v>
       </c>
       <c r="H9">
-        <v>0.06973684323859711</v>
-      </c>
-      <c r="I9">
         <v>-0.1961638776409175</v>
       </c>
     </row>
@@ -760,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5750606441290271</v>
+        <v>-0.1460596688910241</v>
       </c>
       <c r="C10">
-        <v>-0.1460596688910241</v>
+        <v>-0.08838812031281398</v>
       </c>
       <c r="D10">
-        <v>-0.08838812031281398</v>
+        <v>0.03557825052547153</v>
       </c>
       <c r="E10">
-        <v>0.03557825052547153</v>
+        <v>-0.8578398727093204</v>
       </c>
       <c r="F10">
-        <v>-0.8578398727093204</v>
+        <v>-0.08770914576555788</v>
       </c>
       <c r="G10">
-        <v>-0.08770914576555788</v>
-      </c>
-      <c r="H10">
         <v>-0.3536098666450724</v>
       </c>
     </row>
@@ -786,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3545997876350467</v>
+        <v>0.4122713362132568</v>
       </c>
       <c r="C11">
-        <v>0.4122713362132568</v>
+        <v>0.5362377070515423</v>
       </c>
       <c r="D11">
-        <v>0.5362377070515423</v>
+        <v>-0.3571804161832495</v>
       </c>
       <c r="E11">
-        <v>-0.3571804161832495</v>
+        <v>0.4129503107605129</v>
       </c>
       <c r="F11">
-        <v>0.4129503107605129</v>
-      </c>
-      <c r="G11">
         <v>0.1470495898809984</v>
       </c>
     </row>
@@ -809,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1319134556777877</v>
+        <v>0.2558798265160732</v>
       </c>
       <c r="C12">
-        <v>0.2558798265160732</v>
+        <v>-0.6375382967187186</v>
       </c>
       <c r="D12">
-        <v>-0.6375382967187186</v>
+        <v>0.1325924302250437</v>
       </c>
       <c r="E12">
-        <v>0.1325924302250437</v>
-      </c>
-      <c r="F12">
         <v>-0.1333082906544708</v>
       </c>
     </row>
@@ -829,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.4278546843610848</v>
+        <v>-0.465563438873707</v>
       </c>
       <c r="C13">
-        <v>-0.465563438873707</v>
+        <v>0.3045672880700554</v>
       </c>
       <c r="D13">
-        <v>0.3045672880700554</v>
-      </c>
-      <c r="E13">
         <v>0.03866656719054083</v>
       </c>
     </row>
@@ -846,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.7714259786200386</v>
+        <v>-0.001295251676276088</v>
       </c>
       <c r="C14">
-        <v>-0.001295251676276088</v>
-      </c>
-      <c r="D14">
         <v>-0.2671959725557906</v>
       </c>
     </row>
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6110347010110101</v>
-      </c>
-      <c r="C15">
         <v>0.3451339801314955</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.097142175261494</v>
+      </c>
+      <c r="C2">
         <v>-0.07696973751825081</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.790759194417562</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.03759617918141</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-1.19773642068471</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1535986372329528</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.467839292583949</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.032721404606882</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.6351866677392595</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.2061856925012563</v>
-      </c>
-      <c r="K2">
-        <v>-0.1485141439230462</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.5056247995153902</v>
+      </c>
+      <c r="C3">
         <v>-1.208164657383921</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.620190716215051</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.6151418836510686</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.7361931742665938</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.114755244449692</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.6153159416405229</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.05259213070561841</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3764088445323847</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.4340803931105948</v>
-      </c>
-      <c r="K3">
-        <v>0.5580467639488803</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-1.303839698193279</v>
+      </c>
+      <c r="C4">
         <v>1.524515675405693</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.7108169244604263</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.6405181334572361</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.01908020364033419</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5196409008311652</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.1482671715149762</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2807338037230269</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.338405352301237</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.4623717231395225</v>
-      </c>
-      <c r="K4">
-        <v>-0.4310464000952693</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1.784934712404416</v>
+      </c>
+      <c r="C5">
         <v>-0.4503978874617036</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.9009371704559588</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.279499240639057</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.780059937829888</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1121518654837466</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.5411528407217497</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.5988243892999598</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.7227907601382453</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.1706273630965465</v>
-      </c>
-      <c r="K5">
-        <v>0.5995033638472159</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-1.285852883620195</v>
+      </c>
+      <c r="C6">
         <v>0.06548217429746761</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.5559557555194342</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.0553950583286032</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.7233031306747446</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.2943021554367415</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.2366306068585314</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.1126642360202459</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.006082359255038</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2359516323112753</v>
-      </c>
-      <c r="K6">
-        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.1655615342000891</v>
+      </c>
+      <c r="C7">
         <v>-0.4558763956168127</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.04468430157401831</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.6232237707721231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.19422279553412</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.1365512469559099</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.01258487611762438</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.9060029993524162</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1358722724086538</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.1020898895371165</v>
+      </c>
+      <c r="C8">
         <v>0.3984708076537146</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.2694372646924268</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1595637105455762</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2172352591237863</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.3412016299620719</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.55221649327272</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2179142336710425</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.04798648720847212</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.2502934172212692</v>
+      </c>
+      <c r="C9">
         <v>-0.4176146551248722</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.0113863201131309</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.06905786869134101</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1930242395296265</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.7003938837051653</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.06973684323859711</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.1961638776409175</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5750606441290271</v>
+      </c>
+      <c r="C10">
         <v>-0.1460596688910241</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.08838812031281398</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.03557825052547153</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.8578398727093204</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.08770914576555788</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3536098666450724</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3545997876350467</v>
+      </c>
+      <c r="C11">
         <v>0.4122713362132568</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.5362377070515423</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.3571804161832495</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4129503107605129</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.1470495898809984</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.1319134556777877</v>
+      </c>
+      <c r="C12">
         <v>0.2558798265160732</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.6375382967187186</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1325924302250437</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1333082906544708</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.4278546843610848</v>
+      </c>
+      <c r="C13">
         <v>-0.465563438873707</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3045672880700554</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.03866656719054083</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.7714259786200386</v>
+      </c>
+      <c r="C14">
         <v>-0.001295251676276088</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2671959725557906</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.6110347010110101</v>
+      </c>
+      <c r="C15">
         <v>0.3451339801314955</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>
